--- a/dataset/Sensor3.xlsx
+++ b/dataset/Sensor3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\ComNets-Research-Lab-Sensor-Data\dataset\Second Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF098A89-05D1-48D5-AFD3-0D112211770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD951642-B1EC-45D6-8B45-926EE4824AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,10 +145,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -490,7 +487,7 @@
   <dimension ref="A1:F1383"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1358" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1397" sqref="A1397"/>
+      <selection activeCell="A1358" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataset/Sensor3.xlsx
+++ b/dataset/Sensor3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD951642-B1EC-45D6-8B45-926EE4824AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B95C3-BD46-484D-9055-FC60DB6B0C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,10 +148,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
